--- a/result/Night.xlsx
+++ b/result/Night.xlsx
@@ -5,14 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ehsan/Desktop/WorkSpace/Driving+Fatigue/Results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ehsan/Desktop/WorkSpace/Driving+Fatigue/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5740" yWindow="3300" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="2700" yWindow="2880" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Night A" sheetId="1" r:id="rId1"/>
+    <sheet name="Night B" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>Day</t>
   </si>
@@ -36,6 +37,12 @@
   </si>
   <si>
     <t>St Error</t>
+  </si>
+  <si>
+    <t>* 34 h break *</t>
+  </si>
+  <si>
+    <t>34 h break</t>
   </si>
 </sst>
 </file>
@@ -51,7 +58,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -67,6 +74,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7E6E6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -179,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -191,12 +204,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFE7E6E6"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -289,6 +314,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Night A</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -315,47 +343,47 @@
           </c:marker>
           <c:errBars>
             <c:errDir val="y"/>
-            <c:errBarType val="both"/>
+            <c:errBarType val="minus"/>
             <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
             <c:plus>
-              <c:numRef>
-                <c:f>Sheet1!$B$12:$G$12</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="6"/>
-                  <c:pt idx="1">
-                    <c:v>0.0168522995463527</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.0317175030543074</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.0410609303352956</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0.153329710102119</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numLit>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$B$12:$G$12</c:f>
+                <c:f>'Night A'!$B$25:$L$25</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="6"/>
+                  <c:ptCount val="11"/>
                   <c:pt idx="1">
-                    <c:v>0.0168522995463527</c:v>
+                    <c:v>0.049132473986153</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.0317175030543074</c:v>
+                    <c:v>0.0624499799839837</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.0410609303352956</c:v>
+                    <c:v>0.0673052746818554</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.153329710102119</c:v>
+                    <c:v>0.228613210466936</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.0278208554864871</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.0500999001995015</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.0281780056072108</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.0863365507765975</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -375,43 +403,197 @@
             </c:spPr>
           </c:errBars>
           <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$9:$G$9</c:f>
-              <c:numCache>
-                <c:formatCode>h:mm</c:formatCode>
-                <c:ptCount val="6"/>
+            <c:strRef>
+              <c:f>'Night A'!$B$22:$L$22</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
                 <c:pt idx="1">
-                  <c:v>0.875</c:v>
+                  <c:v>21:00</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0:00</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.125</c:v>
+                  <c:v>3:00</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>6:00</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34 h break</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21:00</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0:00</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3:00</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6:00</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$10:$G$10</c:f>
+              <c:f>'Night A'!$B$23:$L$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="1">
-                  <c:v>0.652</c:v>
+                  <c:v>0.882</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.784</c:v>
+                  <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.954</c:v>
+                  <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.55</c:v>
+                  <c:v>2.062</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.738</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.068</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.748</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Night B</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="57000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="plus"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Night B'!$B$25:$L$25</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="1">
+                    <c:v>0.0620000000000002</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0578446194559181</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.126039676292824</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.175082837536979</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.0346410161513775</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.0365239647354993</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.0288790581563873</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.201136769388394</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:alpha val="51000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>'Night B'!$B$23:$L$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="1">
+                  <c:v>0.882</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.276</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.282</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.852</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.088</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.896</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -428,11 +610,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2145721968"/>
-        <c:axId val="2146859648"/>
+        <c:axId val="-2110388800"/>
+        <c:axId val="-2113741168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2145721968"/>
+        <c:axId val="-2110388800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -533,7 +715,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2146859648"/>
+        <c:crossAx val="-2113741168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -542,7 +724,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2146859648"/>
+        <c:axId val="-2113741168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.0"/>
@@ -638,7 +820,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2145721968"/>
+        <c:crossAx val="-2110388800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -650,6 +832,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1247,15 +1461,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1541,15 +1755,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1566,171 +1780,685 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
+        <v>2</v>
+      </c>
+      <c r="B2" s="8">
+        <v>0.95</v>
+      </c>
+      <c r="C2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="8">
-        <v>0.67</v>
-      </c>
-      <c r="C2" s="8">
+      <c r="D2" s="8">
+        <v>1.51</v>
+      </c>
+      <c r="E2" s="5">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1.01</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1.02</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1.25</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>4</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0.72</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1.18</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>5</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0.85</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0.79</v>
+      </c>
+      <c r="D5" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>6</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.88</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0.96</v>
+      </c>
+      <c r="D6" s="9">
+        <v>1.18</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="11">
+        <v>9</v>
+      </c>
+      <c r="B8" s="9">
+        <v>0.81</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0.93</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="E8" s="6">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="11">
+        <v>10</v>
+      </c>
+      <c r="B9" s="9">
+        <v>0.71</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0.69</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="11">
+        <v>11</v>
+      </c>
+      <c r="B10" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="C10" s="9">
+        <v>0.74</v>
+      </c>
+      <c r="D10" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="11">
+        <v>12</v>
+      </c>
+      <c r="B11" s="9">
+        <v>0.68</v>
+      </c>
+      <c r="C11" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0.97</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="11">
+        <v>13</v>
+      </c>
+      <c r="B12" s="10">
+        <v>0.69</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0.94</v>
+      </c>
+      <c r="D12" s="10">
+        <v>1.04</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C22" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="G22" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <f>AVERAGE(B2:B6)</f>
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="D23">
+        <f>AVERAGE(C2:C6)</f>
+        <v>0.99</v>
+      </c>
+      <c r="E23">
+        <f>AVERAGE(D2:D6)</f>
+        <v>1.3</v>
+      </c>
+      <c r="F23">
+        <f>AVERAGE(E2:E6)</f>
+        <v>2.0620000000000003</v>
+      </c>
+      <c r="H23">
+        <f>AVERAGE(B8:B12)</f>
+        <v>0.7380000000000001</v>
+      </c>
+      <c r="I23">
+        <f>AVERAGE(C8:C12)</f>
         <v>0.82</v>
       </c>
-      <c r="D2" s="8">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="E2" s="5">
-        <v>2.13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="J23">
+        <f>AVERAGE(D8:D12)</f>
+        <v>1.0680000000000001</v>
+      </c>
+      <c r="K23">
+        <f>AVERAGE(E8:E12)</f>
+        <v>1.748</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9">
-        <v>0.63</v>
-      </c>
-      <c r="C3" s="9">
-        <v>0.89</v>
-      </c>
-      <c r="D3" s="9">
-        <v>0.91</v>
-      </c>
-      <c r="E3" s="6">
-        <v>1.53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="C24">
+        <f>STDEV(B2:B6)</f>
+        <v>0.10986355173577826</v>
+      </c>
+      <c r="D24">
+        <f>STDEV(C2:C6)</f>
+        <v>0.13964240043768888</v>
+      </c>
+      <c r="E24">
+        <f>STDEV(D2:D6)</f>
+        <v>0.15049916943292432</v>
+      </c>
+      <c r="F24">
+        <f>STDEV(E2:E6)</f>
+        <v>0.51119467915853611</v>
+      </c>
+      <c r="H24">
+        <f>STDEV(B8:B12)</f>
+        <v>6.2209324059983195E-2</v>
+      </c>
+      <c r="I24">
+        <f>STDEV(C8:C12)</f>
+        <v>0.11202678251204067</v>
+      </c>
+      <c r="J24">
+        <f>STDEV(D8:D12)</f>
+        <v>6.3007936008093512E-2</v>
+      </c>
+      <c r="K24">
+        <f>STDEV(E8:E12)</f>
+        <v>0.19305439647933431</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9">
-        <v>0.63</v>
-      </c>
-      <c r="C4" s="9">
-        <v>0.73</v>
-      </c>
-      <c r="D4" s="9">
-        <v>0.91</v>
-      </c>
-      <c r="E4" s="6">
-        <v>1.37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="9">
-        <v>0.62</v>
-      </c>
-      <c r="C5" s="9">
-        <v>0.76</v>
-      </c>
-      <c r="D5" s="9">
-        <v>0.96</v>
-      </c>
-      <c r="E5" s="6">
-        <v>1.48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="10">
-        <v>0.71</v>
-      </c>
-      <c r="C6" s="10">
-        <v>0.72</v>
-      </c>
-      <c r="D6" s="10">
-        <v>0.88</v>
-      </c>
-      <c r="E6" s="7">
-        <v>1.24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C9" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <f>AVERAGE(B2:B6)</f>
-        <v>0.65200000000000002</v>
-      </c>
-      <c r="D10">
-        <f>AVERAGE(C2:C6)</f>
-        <v>0.78400000000000003</v>
-      </c>
-      <c r="E10">
-        <f>AVERAGE(D2:D6)</f>
-        <v>0.95400000000000007</v>
-      </c>
-      <c r="F10">
-        <f>AVERAGE(E2:E6)</f>
-        <v>1.55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <f>STDEV(B2:B6)</f>
-        <v>3.7682887362833539E-2</v>
-      </c>
-      <c r="D11">
-        <f>STDEV(C2:C6)</f>
-        <v>7.0922492905988593E-2</v>
-      </c>
-      <c r="E11">
-        <f>STDEV(D2:D6)</f>
-        <v>9.1815031449104259E-2</v>
-      </c>
-      <c r="F11">
-        <f>STDEV(E2:E6)</f>
-        <v>0.34285565475867547</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <f>(C11/SQRT(COUNT(B2:B6)))</f>
-        <v>1.6852299546352714E-2</v>
-      </c>
-      <c r="D12">
-        <f>(D11/SQRT(COUNT(C2:C6)))</f>
-        <v>3.1717503054307421E-2</v>
-      </c>
-      <c r="E12">
-        <f>(E11/SQRT(COUNT(D2:D6)))</f>
-        <v>4.1060930335295627E-2</v>
-      </c>
-      <c r="F12">
-        <f>(F11/SQRT(COUNT(E2:E6)))</f>
-        <v>0.15332971010211952</v>
+      <c r="C25">
+        <f>(C24/SQRT(COUNT(B2:B6)))</f>
+        <v>4.9132473986153037E-2</v>
+      </c>
+      <c r="D25">
+        <f>(D24/SQRT(COUNT(C2:C6)))</f>
+        <v>6.2449979983983744E-2</v>
+      </c>
+      <c r="E25">
+        <f>(E24/SQRT(COUNT(D2:D6)))</f>
+        <v>6.7305274681855445E-2</v>
+      </c>
+      <c r="F25">
+        <f>(F24/SQRT(COUNT(E2:E6)))</f>
+        <v>0.22861321046693633</v>
+      </c>
+      <c r="H25">
+        <f>(H24/SQRT(COUNT(B8:B12)))</f>
+        <v>2.7820855486487123E-2</v>
+      </c>
+      <c r="I25">
+        <f>(I24/SQRT(COUNT(C8:C12)))</f>
+        <v>5.0099900199501515E-2</v>
+      </c>
+      <c r="J25">
+        <f>(J24/SQRT(COUNT(D8:D12)))</f>
+        <v>2.8178005607210767E-2</v>
+      </c>
+      <c r="K25">
+        <f>(K24/SQRT(COUNT(E8:E12)))</f>
+        <v>8.633655077659752E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="C23:D23 C24:F25 E23:F23" formulaRange="1"/>
+  </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection sqref="A1:E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4">
+        <v>0.875</v>
+      </c>
+      <c r="C1" s="4">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4">
+        <v>0.125</v>
+      </c>
+      <c r="E1" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>2</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1.01</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="D2" s="8">
+        <v>1.69</v>
+      </c>
+      <c r="E2" s="5">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="9">
+        <v>0.86</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1.07</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1.45</v>
+      </c>
+      <c r="E3" s="6">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>4</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1.04</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E4" s="6">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>5</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0.74</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0.84</v>
+      </c>
+      <c r="D5" s="9">
+        <v>1.08</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>6</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.76</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0.92</v>
+      </c>
+      <c r="D6" s="9">
+        <v>1.06</v>
+      </c>
+      <c r="E6" s="6">
+        <v>2.0299999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="11">
+        <v>9</v>
+      </c>
+      <c r="B8" s="9">
+        <v>0.76</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0.98</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1.19</v>
+      </c>
+      <c r="E8" s="6">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="11">
+        <v>10</v>
+      </c>
+      <c r="B9" s="9">
+        <v>0.73</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0.88</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="11">
+        <v>11</v>
+      </c>
+      <c r="B10" s="9">
+        <v>0.64</v>
+      </c>
+      <c r="C10" s="9">
+        <v>0.81</v>
+      </c>
+      <c r="D10" s="9">
+        <v>1.08</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="11">
+        <v>12</v>
+      </c>
+      <c r="B11" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="C11" s="9">
+        <v>0.77</v>
+      </c>
+      <c r="D11" s="9">
+        <v>1.05</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="11">
+        <v>13</v>
+      </c>
+      <c r="B12" s="10">
+        <v>0.62</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0.82</v>
+      </c>
+      <c r="D12" s="10">
+        <v>1.02</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C22" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="G22" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <f>AVERAGE(B2:B6)</f>
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="D23">
+        <f>AVERAGE(C2:C6)</f>
+        <v>1.016</v>
+      </c>
+      <c r="E23">
+        <f>AVERAGE(D2:D6)</f>
+        <v>1.2760000000000002</v>
+      </c>
+      <c r="F23">
+        <f>AVERAGE(E2:E6)</f>
+        <v>2.282</v>
+      </c>
+      <c r="H23">
+        <f>AVERAGE(B8:B12)</f>
+        <v>0.71</v>
+      </c>
+      <c r="I23">
+        <f>AVERAGE(C8:C12)</f>
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="J23">
+        <f>AVERAGE(D8:D12)</f>
+        <v>1.0879999999999999</v>
+      </c>
+      <c r="K23">
+        <f>AVERAGE(E8:E12)</f>
+        <v>1.8959999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <f>STDEV(B2:B6)</f>
+        <v>0.13863621460498743</v>
+      </c>
+      <c r="D24">
+        <f>STDEV(C2:C6)</f>
+        <v>0.12934450123603983</v>
+      </c>
+      <c r="E24">
+        <f>STDEV(D2:D6)</f>
+        <v>0.28183328405282421</v>
+      </c>
+      <c r="F24">
+        <f>STDEV(E2:E6)</f>
+        <v>0.39149712642623691</v>
+      </c>
+      <c r="H24">
+        <f>STDEV(B8:B12)</f>
+        <v>7.7459666924148352E-2</v>
+      </c>
+      <c r="I24">
+        <f>STDEV(C8:C12)</f>
+        <v>8.1670067956381653E-2</v>
+      </c>
+      <c r="J24">
+        <f>STDEV(D8:D12)</f>
+        <v>6.4575537163851726E-2</v>
+      </c>
+      <c r="K24">
+        <f>STDEV(E8:E12)</f>
+        <v>0.44975548912714886</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <f>(C24/SQRT(COUNT(B2:B6)))</f>
+        <v>6.2000000000000208E-2</v>
+      </c>
+      <c r="D25">
+        <f>(D24/SQRT(COUNT(C2:C6)))</f>
+        <v>5.7844619455918123E-2</v>
+      </c>
+      <c r="E25">
+        <f>(E24/SQRT(COUNT(D2:D6)))</f>
+        <v>0.12603967629282448</v>
+      </c>
+      <c r="F25">
+        <f>(F24/SQRT(COUNT(E2:E6)))</f>
+        <v>0.17508283753697901</v>
+      </c>
+      <c r="H25">
+        <f>(H24/SQRT(COUNT(B8:B12)))</f>
+        <v>3.4641016151377553E-2</v>
+      </c>
+      <c r="I25">
+        <f>(I24/SQRT(COUNT(C8:C12)))</f>
+        <v>3.6523964735499341E-2</v>
+      </c>
+      <c r="J25">
+        <f>(J24/SQRT(COUNT(D8:D12)))</f>
+        <v>2.8879058156387284E-2</v>
+      </c>
+      <c r="K25">
+        <f>(K24/SQRT(COUNT(E8:E12)))</f>
+        <v>0.20113676938839448</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="C24:F25 C23:D23 E23:F23" formulaRange="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/result/Night.xlsx
+++ b/result/Night.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ehsan/Desktop/WorkSpace/Driving+Fatigue/result/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ehsan/Desktop/WorkSpace/driving-fatigue/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="2880" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="4660" yWindow="2260" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Night A" sheetId="1" r:id="rId1"/>
@@ -517,28 +517,28 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="11"/>
                   <c:pt idx="1">
-                    <c:v>0.0620000000000002</c:v>
+                    <c:v>0.0316859590355097</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.0578446194559181</c:v>
+                    <c:v>0.0639843730921855</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.126039676292824</c:v>
+                    <c:v>0.0885663593019384</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.175082837536979</c:v>
+                    <c:v>0.161511609489845</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.0346410161513775</c:v>
+                    <c:v>0.0311448230047949</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.0365239647354993</c:v>
+                    <c:v>0.0344383507154451</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.0288790581563873</c:v>
+                    <c:v>0.0451663591625448</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.201136769388394</c:v>
+                    <c:v>0.177070607385868</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -575,25 +575,25 @@
                   <c:v>0.882</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.016</c:v>
+                  <c:v>1.018</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.276</c:v>
+                  <c:v>1.228</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.282</c:v>
+                  <c:v>2.044</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.71</c:v>
+                  <c:v>0.76</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.852</c:v>
+                  <c:v>0.864</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.088</c:v>
+                  <c:v>1.12</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.896</c:v>
+                  <c:v>1.868</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -610,11 +610,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2110388800"/>
-        <c:axId val="-2113741168"/>
+        <c:axId val="-2132254816"/>
+        <c:axId val="-2132247920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2110388800"/>
+        <c:axId val="-2132254816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -715,7 +715,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2113741168"/>
+        <c:crossAx val="-2132247920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -724,7 +724,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2113741168"/>
+        <c:axId val="-2132247920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.0"/>
@@ -820,7 +820,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2110388800"/>
+        <c:crossAx val="-2132254816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1757,7 +1757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -2114,7 +2114,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:E13"/>
+      <selection sqref="A1:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2141,16 +2141,16 @@
         <v>2</v>
       </c>
       <c r="B2" s="8">
-        <v>1.01</v>
+        <v>0.97</v>
       </c>
       <c r="C2" s="8">
-        <v>1.1200000000000001</v>
+        <v>1.23</v>
       </c>
       <c r="D2" s="8">
-        <v>1.69</v>
+        <v>1.49</v>
       </c>
       <c r="E2" s="5">
-        <v>2.93</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2158,16 +2158,16 @@
         <v>3</v>
       </c>
       <c r="B3" s="9">
-        <v>0.86</v>
+        <v>0.84</v>
       </c>
       <c r="C3" s="9">
-        <v>1.07</v>
+        <v>0.95</v>
       </c>
       <c r="D3" s="9">
-        <v>1.45</v>
+        <v>1.23</v>
       </c>
       <c r="E3" s="6">
-        <v>2.36</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2175,16 +2175,16 @@
         <v>4</v>
       </c>
       <c r="B4" s="9">
-        <v>1.04</v>
+        <v>0.94</v>
       </c>
       <c r="C4" s="9">
-        <v>1.1299999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="D4" s="9">
-        <v>1.1000000000000001</v>
+        <v>1.34</v>
       </c>
       <c r="E4" s="6">
-        <v>2.12</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2192,16 +2192,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="9">
-        <v>0.74</v>
+        <v>0.86</v>
       </c>
       <c r="C5" s="9">
         <v>0.84</v>
       </c>
       <c r="D5" s="9">
-        <v>1.08</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="E5" s="6">
-        <v>1.97</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2209,16 +2209,16 @@
         <v>6</v>
       </c>
       <c r="B6" s="6">
-        <v>0.76</v>
+        <v>0.8</v>
       </c>
       <c r="C6" s="9">
-        <v>0.92</v>
+        <v>1.04</v>
       </c>
       <c r="D6" s="9">
-        <v>1.06</v>
+        <v>0.99</v>
       </c>
       <c r="E6" s="6">
-        <v>2.0299999999999998</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2235,16 +2235,16 @@
         <v>9</v>
       </c>
       <c r="B8" s="9">
-        <v>0.76</v>
+        <v>0.82</v>
       </c>
       <c r="C8" s="9">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="D8" s="9">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="E8" s="6">
-        <v>2.67</v>
+        <v>2.5299999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2252,16 +2252,16 @@
         <v>10</v>
       </c>
       <c r="B9" s="9">
-        <v>0.73</v>
+        <v>0.7</v>
       </c>
       <c r="C9" s="9">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="D9" s="9">
-        <v>1.1000000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="E9" s="6">
-        <v>1.77</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2269,16 +2269,16 @@
         <v>11</v>
       </c>
       <c r="B10" s="9">
-        <v>0.64</v>
+        <v>0.71</v>
       </c>
       <c r="C10" s="9">
-        <v>0.81</v>
+        <v>0.88</v>
       </c>
       <c r="D10" s="9">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="E10" s="6">
-        <v>1.77</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2286,16 +2286,16 @@
         <v>12</v>
       </c>
       <c r="B11" s="9">
-        <v>0.8</v>
+        <v>0.72</v>
       </c>
       <c r="C11" s="9">
-        <v>0.77</v>
+        <v>0.81</v>
       </c>
       <c r="D11" s="9">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="E11" s="6">
-        <v>1.78</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -2303,16 +2303,16 @@
         <v>13</v>
       </c>
       <c r="B12" s="10">
-        <v>0.62</v>
+        <v>0.85</v>
       </c>
       <c r="C12" s="10">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
       <c r="D12" s="10">
-        <v>1.02</v>
+        <v>0.99</v>
       </c>
       <c r="E12" s="7">
-        <v>1.49</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -2354,31 +2354,31 @@
       </c>
       <c r="D23">
         <f>AVERAGE(C2:C6)</f>
-        <v>1.016</v>
+        <v>1.018</v>
       </c>
       <c r="E23">
         <f>AVERAGE(D2:D6)</f>
-        <v>1.2760000000000002</v>
+        <v>1.228</v>
       </c>
       <c r="F23">
         <f>AVERAGE(E2:E6)</f>
-        <v>2.282</v>
+        <v>2.0439999999999996</v>
       </c>
       <c r="H23">
         <f>AVERAGE(B8:B12)</f>
-        <v>0.71</v>
+        <v>0.76</v>
       </c>
       <c r="I23">
         <f>AVERAGE(C8:C12)</f>
-        <v>0.85199999999999998</v>
+        <v>0.8640000000000001</v>
       </c>
       <c r="J23">
         <f>AVERAGE(D8:D12)</f>
-        <v>1.0879999999999999</v>
+        <v>1.1199999999999999</v>
       </c>
       <c r="K23">
         <f>AVERAGE(E8:E12)</f>
-        <v>1.8959999999999997</v>
+        <v>1.8679999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -2387,35 +2387,35 @@
       </c>
       <c r="C24">
         <f>STDEV(B2:B6)</f>
-        <v>0.13863621460498743</v>
+        <v>7.0851958335673385E-2</v>
       </c>
       <c r="D24">
         <f>STDEV(C2:C6)</f>
-        <v>0.12934450123603983</v>
+        <v>0.1430734077318353</v>
       </c>
       <c r="E24">
         <f>STDEV(D2:D6)</f>
-        <v>0.28183328405282421</v>
+        <v>0.19804039991880509</v>
       </c>
       <c r="F24">
         <f>STDEV(E2:E6)</f>
-        <v>0.39149712642623691</v>
+        <v>0.36115093797469416</v>
       </c>
       <c r="H24">
         <f>STDEV(B8:B12)</f>
-        <v>7.7459666924148352E-2</v>
+        <v>6.96419413859206E-2</v>
       </c>
       <c r="I24">
         <f>STDEV(C8:C12)</f>
-        <v>8.1670067956381653E-2</v>
+        <v>7.7006493232713816E-2</v>
       </c>
       <c r="J24">
         <f>STDEV(D8:D12)</f>
-        <v>6.4575537163851726E-2</v>
+        <v>0.10099504938362076</v>
       </c>
       <c r="K24">
         <f>STDEV(E8:E12)</f>
-        <v>0.44975548912714886</v>
+        <v>0.39594191493197678</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -2424,35 +2424,35 @@
       </c>
       <c r="C25">
         <f>(C24/SQRT(COUNT(B2:B6)))</f>
-        <v>6.2000000000000208E-2</v>
+        <v>3.1685959035509706E-2</v>
       </c>
       <c r="D25">
         <f>(D24/SQRT(COUNT(C2:C6)))</f>
-        <v>5.7844619455918123E-2</v>
+        <v>6.3984373092185548E-2</v>
       </c>
       <c r="E25">
         <f>(E24/SQRT(COUNT(D2:D6)))</f>
-        <v>0.12603967629282448</v>
+        <v>8.8566359301938402E-2</v>
       </c>
       <c r="F25">
         <f>(F24/SQRT(COUNT(E2:E6)))</f>
-        <v>0.17508283753697901</v>
+        <v>0.16151160948984528</v>
       </c>
       <c r="H25">
         <f>(H24/SQRT(COUNT(B8:B12)))</f>
-        <v>3.4641016151377553E-2</v>
+        <v>3.1144823004794875E-2</v>
       </c>
       <c r="I25">
         <f>(I24/SQRT(COUNT(C8:C12)))</f>
-        <v>3.6523964735499341E-2</v>
+        <v>3.4438350715445126E-2</v>
       </c>
       <c r="J25">
         <f>(J24/SQRT(COUNT(D8:D12)))</f>
-        <v>2.8879058156387284E-2</v>
+        <v>4.5166359162544849E-2</v>
       </c>
       <c r="K25">
         <f>(K24/SQRT(COUNT(E8:E12)))</f>
-        <v>0.20113676938839448</v>
+        <v>0.1770706073858678</v>
       </c>
     </row>
   </sheetData>
